--- a/data/trans_orig/Q24D_2-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q24D_2-Estudios-trans_orig.xlsx
@@ -681,7 +681,7 @@
         <v>2.721215386721442</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>3.012296615211892</v>
+        <v>3.012296615211891</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>2.941962169773741</v>
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>2.67217484705597</v>
+        <v>2.668197064294255</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>2.366197609627128</v>
+        <v>2.393362897120241</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2.047538263896195</v>
+        <v>2.066580080199627</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>2.627006966107698</v>
+        <v>2.543731692661928</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>1.843941909838551</v>
+        <v>1.83468352751354</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>1.84947544546077</v>
+        <v>1.854839575503818</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>2.319184848149573</v>
+        <v>2.309839942418104</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>2.469459111940948</v>
+        <v>2.430056284691458</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>2.528865145066055</v>
+        <v>2.551645396656213</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>2.23962313706935</v>
+        <v>2.237339927822927</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>2.242395321396418</v>
+        <v>2.259842096318462</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>2.734574630259402</v>
+        <v>2.714217891623283</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>4.254462615427262</v>
+        <v>4.278063630455837</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>3.044605740087809</v>
+        <v>3.125318733912481</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2.741415187158045</v>
+        <v>2.777991623266358</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>5.115400386171832</v>
+        <v>5.006464329453321</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>2.602790077423801</v>
+        <v>2.558216143797191</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>2.450376243140825</v>
+        <v>2.420022227821879</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>3.317433325928886</v>
+        <v>3.415324362594522</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>3.903696242592134</v>
+        <v>3.85715839509093</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>3.663083942392747</v>
+        <v>3.662946691123421</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>2.712386495223662</v>
+        <v>2.743900828286947</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>2.83835718193441</v>
+        <v>2.844931041673807</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>4.290463484076178</v>
+        <v>4.203645505287277</v>
       </c>
     </row>
     <row r="7">
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>2.276570188326593</v>
+        <v>2.292118570369629</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>2.463456751682004</v>
+        <v>2.463264806388426</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2.328638597066371</v>
+        <v>2.339324716594869</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2.603859539542105</v>
+        <v>2.568776196752089</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>1.992026536688306</v>
+        <v>2.006242863950821</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>2.328322375023761</v>
+        <v>2.321158670755083</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>2.211959633582297</v>
+        <v>2.228350875635474</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>2.488065483532663</v>
+        <v>2.530910641605092</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>2.251142749253444</v>
+        <v>2.257235775348788</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>2.464017712340787</v>
+        <v>2.460112452193567</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>2.328899332188772</v>
+        <v>2.321730573592292</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>2.661485570119202</v>
+        <v>2.604047626349073</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>3.344110331106661</v>
+        <v>3.352817740280167</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>3.241588916693997</v>
+        <v>3.23960799543834</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>2.803904604904092</v>
+        <v>2.801764734216704</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>4.632824856944789</v>
+        <v>4.244625721864803</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>2.44443986468771</v>
+        <v>2.438616947943473</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>2.840098691661729</v>
+        <v>2.841201880659435</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>2.636396180778821</v>
+        <v>2.626914099245771</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>3.236239631891309</v>
+        <v>3.274029173468757</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>2.872413290780623</v>
+        <v>2.872531781342476</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>2.936156024960815</v>
+        <v>2.940169566869189</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>2.653657956041422</v>
+        <v>2.616658184732056</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>3.592088261133555</v>
+        <v>3.547902735120651</v>
       </c>
     </row>
     <row r="10">
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>1.851713482435431</v>
+        <v>1.881363092842031</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>2.137106568959128</v>
+        <v>2.19503599218586</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2.23609610869041</v>
+        <v>2.179903945794652</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>2.367031689850062</v>
+        <v>2.371304525271154</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>1.765469472930859</v>
+        <v>1.790359099758883</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>2.095202556511829</v>
+        <v>2.083016250100308</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>1.810339341306983</v>
+        <v>1.826564056040573</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>2.204268862994406</v>
+        <v>2.213924567780016</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>1.92961542287776</v>
+        <v>1.929331802015946</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>2.219714459144382</v>
+        <v>2.228669075313008</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>2.182097928881812</v>
+        <v>2.12503605553542</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>2.387246376922854</v>
+        <v>2.439535330709594</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.944075694263646</v>
+        <v>2.838615617834348</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>3.012364858103685</v>
+        <v>3.015455312381408</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>4.206657293074065</v>
+        <v>4.143540055453484</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>3.678845314829446</v>
+        <v>3.636462982011343</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>2.970783203293302</v>
+        <v>2.910758241714172</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>3.059961800566744</v>
+        <v>2.968995607391742</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>3.246071834803672</v>
+        <v>3.582131395971767</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>3.185014764766174</v>
+        <v>3.158187042641287</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>2.692637170295284</v>
+        <v>2.695160280614966</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>2.847925610603784</v>
+        <v>2.822825900559654</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>3.42428630154608</v>
+        <v>3.306820679998628</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>3.186869093436274</v>
+        <v>3.260814983511498</v>
       </c>
     </row>
     <row r="13">
@@ -1089,7 +1089,7 @@
         <v>2.426180881773229</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>2.806458277148153</v>
+        <v>2.806458277148154</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>2.546709851546261</v>
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>2.488990885884346</v>
+        <v>2.474705189447718</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>2.4957134809651</v>
+        <v>2.491576272913548</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2.380348039455834</v>
+        <v>2.349140392868253</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2.730232291469906</v>
+        <v>2.700228159409611</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>2.028291952664333</v>
+        <v>2.025559129020244</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>2.269840658586899</v>
+        <v>2.287350491767571</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>2.254126457952623</v>
+        <v>2.254807416285958</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>2.571433068429505</v>
+        <v>2.575521466471005</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>2.340035054628288</v>
+        <v>2.331082102231687</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2.447049333635146</v>
+        <v>2.446948424334224</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>2.343687184431694</v>
+        <v>2.372880238126685</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>2.725390581923208</v>
+        <v>2.729244498691127</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>3.254563016987776</v>
+        <v>3.22382721821087</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>3.030998078019676</v>
+        <v>3.024427394009813</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>2.781432953439605</v>
+        <v>2.770031569582924</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>4.053637814474614</v>
+        <v>4.02576486485909</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>2.380467173248343</v>
+        <v>2.390295121563728</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>2.627221055260619</v>
+        <v>2.653088081225899</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>2.604555054894286</v>
+        <v>2.624534621843178</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>3.102838022273219</v>
+        <v>3.14773977590419</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>2.83953389340313</v>
+        <v>2.799608409582469</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>2.782830769714109</v>
+        <v>2.776530653838277</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>2.629976242433449</v>
+        <v>2.645522436470567</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>3.399830173294969</v>
+        <v>3.438458329797124</v>
       </c>
     </row>
     <row r="16">
